--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07T13:43:20+00:00</t>
+    <t>2023-02-07T13:44:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T09:57:31+00:00</t>
+    <t>2023-02-08T11:02:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T11:02:36+00:00</t>
+    <t>2023-02-08T11:03:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T12:16:58+00:00</t>
+    <t>2023-02-08T12:21:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T12:21:52+00:00</t>
+    <t>2023-02-08T12:26:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T12:26:30+00:00</t>
+    <t>2023-02-08T12:26:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T12:26:48+00:00</t>
+    <t>2023-02-08T12:31:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T14:59:12+00:00</t>
+    <t>2023-02-08T15:01:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T08:27:41+00:00</t>
+    <t>2023-02-09T09:47:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -120,25 +120,34 @@
     <t>Count</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
     <t>VL-RESULT</t>
   </si>
   <si>
     <t>HIV VL Test Result</t>
+  </si>
+  <si>
+    <t>VL-TEST</t>
+  </si>
+  <si>
+    <t>HIV Vtiral Load test</t>
   </si>
 </sst>
 </file>
@@ -451,7 +460,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -473,15 +482,27 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="C2" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D2" s="2"/>
+      <c r="B3" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D3" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T09:47:00+00:00</t>
+    <t>2023-02-09T09:48:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T10:39:24+00:00</t>
+    <t>2023-02-09T10:40:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T10:40:09+00:00</t>
+    <t>2023-02-09T12:01:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -120,25 +120,34 @@
     <t>Count</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
     <t>VL-RESULT</t>
   </si>
   <si>
     <t>HIV VL Test Result</t>
+  </si>
+  <si>
+    <t>VL-TEST</t>
+  </si>
+  <si>
+    <t>HIV Vtiral Load test</t>
   </si>
 </sst>
 </file>
@@ -451,7 +460,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -473,15 +482,27 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="C2" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D2" s="2"/>
+      <c r="B3" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D3" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T12:01:57+00:00</t>
+    <t>2023-02-09T12:02:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T12:02:42+00:00</t>
+    <t>2023-02-09T13:08:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -120,7 +120,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>2</t>
+    <t>1</t>
   </si>
   <si>
     <t>Level</t>
@@ -135,19 +135,10 @@
     <t>Definition</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>VL-RESULT</t>
   </si>
   <si>
     <t>HIV VL Test Result</t>
-  </si>
-  <si>
-    <t>VL-TEST</t>
-  </si>
-  <si>
-    <t>HIV Vtiral Load test</t>
   </si>
 </sst>
 </file>
@@ -460,7 +451,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -482,27 +473,15 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="C2" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="C2" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="D2" s="2"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D3" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T13:08:40+00:00</t>
+    <t>2023-02-09T13:39:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T13:39:21+00:00</t>
+    <t>2023-02-09T15:03:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T15:03:43+00:00</t>
+    <t>2023-02-09T15:04:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T15:04:10+00:00</t>
+    <t>2023-02-09T15:19:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T15:19:28+00:00</t>
+    <t>2023-02-10T06:41:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T06:41:50+00:00</t>
+    <t>2023-02-10T06:42:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -120,25 +120,34 @@
     <t>Count</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
     <t>VL-RESULT</t>
   </si>
   <si>
     <t>HIV VL Test Result</t>
+  </si>
+  <si>
+    <t>DATE-TESTED-FOR-HIV</t>
+  </si>
+  <si>
+    <t>Date tested for HIV</t>
   </si>
 </sst>
 </file>
@@ -451,7 +460,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -473,15 +482,27 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="C2" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D2" s="2"/>
+      <c r="B3" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D3" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T06:42:24+00:00</t>
+    <t>2023-02-10T06:43:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T06:43:03+00:00</t>
+    <t>2023-02-10T07:15:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T07:15:04+00:00</t>
+    <t>2023-02-10T07:15:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T07:15:43+00:00</t>
+    <t>2023-02-10T13:19:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -120,7 +120,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>2</t>
+    <t>1</t>
   </si>
   <si>
     <t>Level</t>
@@ -135,19 +135,10 @@
     <t>Definition</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>VL-RESULT</t>
   </si>
   <si>
     <t>HIV VL Test Result</t>
-  </si>
-  <si>
-    <t>DATE-TESTED-FOR-HIV</t>
-  </si>
-  <si>
-    <t>Date tested for HIV</t>
   </si>
 </sst>
 </file>
@@ -460,7 +451,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -482,27 +473,15 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="C2" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="C2" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="D2" s="2"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D3" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T13:19:16+00:00</t>
+    <t>2023-02-10T13:19:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T13:19:37+00:00</t>
+    <t>2023-02-10T13:23:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T13:23:24+00:00</t>
+    <t>2023-02-10T13:48:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T13:48:02+00:00</t>
+    <t>2023-02-10T13:53:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T13:53:42+00:00</t>
+    <t>2023-02-10T13:54:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T13:54:21+00:00</t>
+    <t>2023-02-10T14:00:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T14:00:13+00:00</t>
+    <t>2023-02-13T07:29:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T07:29:47+00:00</t>
+    <t>2023-02-13T07:44:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T07:44:02+00:00</t>
+    <t>2023-02-13T07:45:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T07:45:28+00:00</t>
+    <t>2023-02-13T07:50:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T07:50:39+00:00</t>
+    <t>2023-02-13T10:40:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T10:40:45+00:00</t>
+    <t>2023-02-13T10:45:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T10:45:36+00:00</t>
+    <t>2023-02-13T11:15:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T11:15:25+00:00</t>
+    <t>2023-02-13T11:16:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T11:16:11+00:00</t>
+    <t>2023-02-13T11:45:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T11:45:47+00:00</t>
+    <t>2023-02-13T11:48:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T11:48:16+00:00</t>
+    <t>2023-02-13T12:16:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T12:16:03+00:00</t>
+    <t>2023-02-13T12:20:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T12:20:57+00:00</t>
+    <t>2023-02-13T12:39:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T12:39:54+00:00</t>
+    <t>2023-02-13T14:47:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T14:47:57+00:00</t>
+    <t>2023-02-13T14:52:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T14:52:44+00:00</t>
+    <t>2023-02-13T15:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T15:02:26+00:00</t>
+    <t>2023-02-13T15:03:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T15:03:14+00:00</t>
+    <t>2023-02-13T15:10:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T15:10:15+00:00</t>
+    <t>2023-02-13T15:15:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T15:15:01+00:00</t>
+    <t>2023-02-13T15:15:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T15:15:32+00:00</t>
+    <t>2023-02-13T15:20:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T15:20:12+00:00</t>
+    <t>2023-02-13T15:22:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T15:22:00+00:00</t>
+    <t>2023-02-13T19:08:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T19:08:35+00:00</t>
+    <t>2023-02-13T19:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T19:10:14+00:00</t>
+    <t>2023-02-13T19:11:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T19:11:03+00:00</t>
+    <t>2023-02-14T06:06:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T06:06:47+00:00</t>
+    <t>2023-02-14T06:14:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T06:14:44+00:00</t>
+    <t>2023-02-14T06:22:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T06:22:43+00:00</t>
+    <t>2023-02-14T07:22:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T07:22:19+00:00</t>
+    <t>2023-02-14T08:50:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T08:50:38+00:00</t>
+    <t>2023-02-14T09:43:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T09:43:04+00:00</t>
+    <t>2023-02-14T09:55:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T09:55:25+00:00</t>
+    <t>2023-02-14T10:08:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T10:08:14+00:00</t>
+    <t>2023-02-14T11:00:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T11:00:57+00:00</t>
+    <t>2023-02-14T11:01:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T11:01:25+00:00</t>
+    <t>2023-02-14T11:18:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T11:18:24+00:00</t>
+    <t>2023-02-14T12:20:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T12:20:05+00:00</t>
+    <t>2023-02-14T14:33:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T14:33:23+00:00</t>
+    <t>2023-02-14T14:33:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T14:33:42+00:00</t>
+    <t>2023-02-14T16:15:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T16:15:08+00:00</t>
+    <t>2023-02-15T07:08:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T07:08:17+00:00</t>
+    <t>2023-02-15T07:09:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T07:09:22+00:00</t>
+    <t>2023-02-15T09:10:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T09:10:23+00:00</t>
+    <t>2023-02-15T09:11:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T09:11:23+00:00</t>
+    <t>2023-02-15T09:18:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T09:18:52+00:00</t>
+    <t>2023-02-15T09:19:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T09:19:32+00:00</t>
+    <t>2023-02-15T10:30:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T10:30:33+00:00</t>
+    <t>2023-02-15T10:39:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T10:39:10+00:00</t>
+    <t>2023-02-15T10:47:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T10:47:55+00:00</t>
+    <t>2023-02-15T14:53:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T14:53:45+00:00</t>
+    <t>2023-02-15T15:02:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T15:02:29+00:00</t>
+    <t>2023-02-15T19:34:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T19:34:16+00:00</t>
+    <t>2023-02-16T07:18:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T07:18:21+00:00</t>
+    <t>2023-02-16T07:24:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T07:24:24+00:00</t>
+    <t>2023-02-16T07:29:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T07:29:32+00:00</t>
+    <t>2023-02-16T07:39:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T07:39:57+00:00</t>
+    <t>2023-02-16T08:15:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T08:15:30+00:00</t>
+    <t>2023-02-16T08:22:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T08:22:59+00:00</t>
+    <t>2023-02-16T09:04:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T09:04:40+00:00</t>
+    <t>2023-02-16T09:05:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T09:05:53+00:00</t>
+    <t>2023-02-16T09:13:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T09:13:52+00:00</t>
+    <t>2023-02-16T09:19:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T09:19:54+00:00</t>
+    <t>2023-02-16T13:15:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T13:15:00+00:00</t>
+    <t>2023-02-16T13:21:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T13:21:24+00:00</t>
+    <t>2023-02-16T13:29:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T13:29:44+00:00</t>
+    <t>2023-02-16T14:00:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:00:41+00:00</t>
+    <t>2023-02-16T14:12:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:12:28+00:00</t>
+    <t>2023-02-16T14:44:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:44:06+00:00</t>
+    <t>2023-02-16T14:49:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:49:30+00:00</t>
+    <t>2023-02-16T14:51:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:51:09+00:00</t>
+    <t>2023-02-16T14:57:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:57:31+00:00</t>
+    <t>2023-02-16T15:02:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T15:02:50+00:00</t>
+    <t>2023-02-17T04:54:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T04:54:17+00:00</t>
+    <t>2023-02-17T05:00:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T05:00:13+00:00</t>
+    <t>2023-02-17T05:13:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T05:13:50+00:00</t>
+    <t>2023-02-17T05:42:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T05:42:44+00:00</t>
+    <t>2023-02-17T06:03:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:03:48+00:00</t>
+    <t>2023-02-17T06:10:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:10:41+00:00</t>
+    <t>2023-02-17T06:12:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:12:18+00:00</t>
+    <t>2023-02-17T06:17:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:17:41+00:00</t>
+    <t>2023-02-17T06:28:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:28:11+00:00</t>
+    <t>2023-02-17T06:29:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:29:33+00:00</t>
+    <t>2023-02-17T06:55:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:55:40+00:00</t>
+    <t>2023-02-17T07:01:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T07:01:10+00:00</t>
+    <t>2023-02-17T08:02:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T08:02:48+00:00</t>
+    <t>2023-02-17T08:03:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T08:03:26+00:00</t>
+    <t>2023-02-17T09:02:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T09:02:45+00:00</t>
+    <t>2023-02-18T08:11:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:11:00+00:00</t>
+    <t>2023-02-18T08:11:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:11:48+00:00</t>
+    <t>2023-02-18T08:36:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:36:05+00:00</t>
+    <t>2023-02-18T08:46:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:46:50+00:00</t>
+    <t>2023-02-18T10:10:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:10:12+00:00</t>
+    <t>2023-02-18T10:12:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:12:19+00:00</t>
+    <t>2023-02-18T10:18:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:18:24+00:00</t>
+    <t>2023-02-18T10:23:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:23:53+00:00</t>
+    <t>2023-02-18T11:12:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:12:59+00:00</t>
+    <t>2023-02-18T11:19:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:19:13+00:00</t>
+    <t>2023-02-18T11:25:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-result-code.xlsx
+++ b/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:25:07+00:00</t>
+    <t>2023-02-18T14:34:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
